--- a/Bill of Materials-CAN2XG.xlsx
+++ b/Bill of Materials-CAN2XG.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Autopeepel\TATA_VCI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Autopeepel\HW_CAN2x_FD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB7FBD5-1B4B-4B90-B005-BDF78AE169E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79BCDD7B-3872-4A0F-9D03-410DCF7D8D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="181">
   <si>
     <t>Designator</t>
   </si>
@@ -127,12 +127,6 @@
   </si>
   <si>
     <t>C26, C27, C34, C35</t>
-  </si>
-  <si>
-    <t>CAP CER 9PF 50V X7R 0402</t>
-  </si>
-  <si>
-    <t>9pF</t>
   </si>
   <si>
     <t>CAPC0402</t>
@@ -497,31 +491,88 @@
     <t>https://www.mouser.in/ProductDetail/Vishay-Dale/CRCW06030000Z0EI?qs=%252B6g0mu59x7L7KQG%252Bwwt0jQ%3D%3D</t>
   </si>
   <si>
-    <t>https://www.lcsc.com/product-detail/Chip-Resistor-Surface-Mount_UNI-ROYAL-Uniroyal-Elec-0603WAF604JT5E_C23090.html</t>
-  </si>
-  <si>
-    <t>https://www.lcsc.com/product-detail/Chip-Resistor-Surface-Mount_FOJAN-FRC0603J333-TS_C2907153.html</t>
-  </si>
-  <si>
-    <t>https://www.lcsc.com/product-detail/Chip-Resistor-Surface-Mount_UNI-ROYAL-Uniroyal-Elec-0603WAF3001T5E_C4211.html</t>
-  </si>
-  <si>
-    <t>https://www.lcsc.com/product-detail/Chip-Resistor-Surface-Mount_UNI-ROYAL-Uniroyal-Elec-0603WAF1002T5E_C25804.html</t>
-  </si>
-  <si>
-    <t>https://www.lcsc.com/product-detail/Chip-Resistor-Surface-Mount_UNI-ROYAL-Uniroyal-Elec-0603WAF1202T5E_C22790.html</t>
-  </si>
-  <si>
-    <t>https://www.lcsc.com/product-detail/Chip-Resistor-Surface-Mount_UNI-ROYAL-Uniroyal-Elec-0603WAF1004T5E_C22935.html</t>
-  </si>
-  <si>
     <t>Thick Film Resistor -  1M, 1%, 0603</t>
   </si>
   <si>
-    <t>0603WAF1002T5E UNI-ROYAL(Uniroyal Elec) | C25804 - LCSC Electronics</t>
-  </si>
-  <si>
-    <t>https://www.lcsc.com/product-detail/Chip-Resistor-Surface-Mount_UNI-ROYAL-Uniroyal-Elec-0603WAF1502T5E_C22809.html</t>
+    <t>https://www.mouser.in/ProductDetail/Panasonic/ERJ-3RED60R4V?qs=KTDjhDDUMAlkU83j%2FtcbRg%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.in/ProductDetail/Vishay-Dale/TNPW060333K0BEEA?qs=sGAEpiMZZMtlubZbdhIBIGMqrp59BFlFdVENzDpF6xo%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.in/ProductDetail/Panasonic/ERA-3AED302V?qs=sGAEpiMZZMtlubZbdhIBINnjttWTECnXIy3VY1QcamE%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.in/ProductDetail/Vishay-Dale/CRCW060310K0FKEI?qs=sGAEpiMZZMtlubZbdhIBIHFHA%252BLjIXrexE6X%2Fz%252Bm29E%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.in/ProductDetail/Panasonic/ERA-3ARB123V?qs=sGAEpiMZZMtlubZbdhIBIJiMSTY83nT4K61bsSktVuM%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.in/ProductDetail/TE-Connectivity-Holsworthy/CPF0603B1M0E?qs=sGAEpiMZZMtlubZbdhIBIEX5hvMajGPGqueGdDlTIPE%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.in/ProductDetail/Vishay/M55342K12B15E0RS2?qs=ZgpRcFxYeYoQBTxE9CI2MA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.in/ProductDetail/Vishay-Dale/RCS06034K70FKEA?qs=NKmfXavxMaxcaMGLC8ehbA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.in/ProductDetail/ROHM-Semiconductor/ESR03EZPJ102?qs=DyUWGjl%252BcVvjMuV%252BzioV7Q%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.ktron.in/product/smd-red-led-0603/</t>
+  </si>
+  <si>
+    <t>https://www.sunrom.com/p/blue-smd-led-0603</t>
+  </si>
+  <si>
+    <t>https://www.sunrom.com/p/orange-smd-led-0603</t>
+  </si>
+  <si>
+    <t>https://www.ktron.in/product/smd-green-led-0603-package/</t>
+  </si>
+  <si>
+    <t>https://www.ktron.in/product/smd-yellow-led-0603/</t>
+  </si>
+  <si>
+    <t>https://www.sunrom.com/p/usb-mini-b-smd-connector</t>
+  </si>
+  <si>
+    <t>https://www.ktron.in/product/ss34-diode-smb/</t>
+  </si>
+  <si>
+    <t>https://www.ktron.in/product/m7-diode-sma/</t>
+  </si>
+  <si>
+    <t>https://www.mouser.in/ProductDetail/TAIYO-YUDEN/MBASU105SCH100CFNA01?qs=HFfMDpzxxd1UuuPel66MeQ%3D%3D</t>
+  </si>
+  <si>
+    <t>10pF</t>
+  </si>
+  <si>
+    <t>CAP CER 10PF 50V X7R 0402</t>
+  </si>
+  <si>
+    <t>https://www.mouser.in/ProductDetail/Murata-Electronics/GRM1885C1H472JA01D?qs=e4Xae8FWUKn%2FMRcWxYvfaQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.in/ProductDetail/KYOCERA-AVX/06035C334KAT2A?qs=%252BdQmOuGyFcFl6Xc6UpmR5g%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.sunrom.com/p/100uf-16v-107c-b3528-tantalum</t>
+  </si>
+  <si>
+    <t>https://www.sunrom.com/p/220uf-50v-10x105mm-smd-electrolytic-capacitor</t>
+  </si>
+  <si>
+    <t>https://www.mouser.in/ProductDetail/TAIYO-YUDEN/MLAST168BB5106MTNA01?qs=tlsG%2FOw5FFgokU6W0VBUCw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.in/ProductDetail/KEMET/C0603R104K3RACTU?qs=ty6qhqyUUEtJwegZBOYfPg%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.in/ProductDetail/KYOCERA-AVX/KGM15CR51E475KT?qs=Jm2GQyTW%2FbixQyNI34FoPQ%3D%3D</t>
   </si>
 </sst>
 </file>
@@ -646,7 +697,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -660,6 +711,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -977,21 +1030,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="FH1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="50.21875" customWidth="1"/>
-    <col min="3" max="4" width="16.77734375" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="16.77734375" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" customWidth="1"/>
+    <col min="4" max="4" width="37.77734375" customWidth="1"/>
+    <col min="5" max="5" width="41.5546875" customWidth="1"/>
+    <col min="6" max="6" width="39.77734375" customWidth="1"/>
+    <col min="7" max="7" width="38.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1014,7 +1068,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
@@ -1034,8 +1088,11 @@
       <c r="G2" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
@@ -1055,8 +1112,11 @@
       <c r="G3" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>16</v>
       </c>
@@ -1076,8 +1136,11 @@
       <c r="G4" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
@@ -1091,12 +1154,14 @@
       <c r="E5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="1"/>
       <c r="G5" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="12" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>23</v>
       </c>
@@ -1110,12 +1175,14 @@
       <c r="E6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="1"/>
       <c r="G6" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>27</v>
       </c>
@@ -1135,8 +1202,11 @@
       <c r="G7" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>30</v>
       </c>
@@ -1156,151 +1226,172 @@
       <c r="G8" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>173</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>35</v>
+        <v>172</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G9" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="132" x14ac:dyDescent="0.25">
+      <c r="H9" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="132" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="3"/>
       <c r="E11" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="3"/>
       <c r="E13" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>12</v>
@@ -1308,121 +1399,133 @@
       <c r="G16" s="3">
         <v>1</v>
       </c>
+      <c r="H16" s="10" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="3"/>
       <c r="E17" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="3">
         <v>1</v>
       </c>
+      <c r="H17" s="10" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="3">
         <v>1</v>
       </c>
+      <c r="H18" s="10" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="3">
         <v>1</v>
       </c>
+      <c r="H19" s="10" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="3">
         <v>1</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="G21" s="3">
         <v>4</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>12</v>
@@ -1430,20 +1533,23 @@
       <c r="G22" s="3">
         <v>7</v>
       </c>
+      <c r="H22" s="10" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>12</v>
@@ -1452,22 +1558,22 @@
         <v>2</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>12</v>
@@ -1476,22 +1582,22 @@
         <v>6</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>12</v>
@@ -1499,42 +1605,45 @@
       <c r="G25" s="3">
         <v>10</v>
       </c>
+      <c r="H25" s="10" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>92</v>
+      <c r="A26" s="11" t="s">
+        <v>90</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="3">
         <v>1</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>12</v>
@@ -1543,22 +1652,22 @@
         <v>2</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>12</v>
@@ -1567,22 +1676,22 @@
         <v>2</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>12</v>
@@ -1591,22 +1700,22 @@
         <v>8</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>12</v>
@@ -1615,22 +1724,22 @@
         <v>2</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>12</v>
@@ -1639,22 +1748,22 @@
         <v>2</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>12</v>
@@ -1663,22 +1772,22 @@
         <v>4</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>12</v>
@@ -1687,185 +1796,185 @@
         <v>12</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="3">
         <v>2</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="3">
         <v>1</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="3">
         <v>1</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="3">
         <v>1</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="3">
         <v>1</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="3">
         <v>2</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="3">
         <v>2</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="3"/>
       <c r="E41" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G41" s="3">
         <v>1</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1882,14 +1991,29 @@
     <hyperlink ref="H34" r:id="rId10" xr:uid="{9BAB330F-F71F-4C2B-AD9B-EEC3B149AF11}"/>
     <hyperlink ref="H33" r:id="rId11" xr:uid="{73C224D6-F649-4C5C-8C78-19AB57FB0A20}"/>
     <hyperlink ref="H32" r:id="rId12" xr:uid="{ABA9ED46-0316-4318-819B-7D000AD886E8}"/>
-    <hyperlink ref="H31" r:id="rId13" xr:uid="{11D8B65E-7D23-4836-9351-1A6EE1BF16F6}"/>
-    <hyperlink ref="H30" r:id="rId14" xr:uid="{4D1FE927-5124-4971-9476-1C95B99CCA8C}"/>
-    <hyperlink ref="H29" r:id="rId15" xr:uid="{93D6ED64-AE53-4CF8-AEED-51770BAFEF6D}"/>
-    <hyperlink ref="H28" r:id="rId16" xr:uid="{B74362D2-581F-4AB7-AAA3-3ACD33F4FC84}"/>
-    <hyperlink ref="H27" r:id="rId17" xr:uid="{145EA74F-ADB8-4F3C-ABB1-4D29EF4387CD}"/>
-    <hyperlink ref="H26" r:id="rId18" display="https://www.lcsc.com/product-detail/Chip-Resistor-Surface-Mount_UNI-ROYAL-Uniroyal-Elec-0603WAF1002T5E_C25804.html" xr:uid="{3EF391B0-1022-44D4-A6F4-E7DE0BA9C1F6}"/>
-    <hyperlink ref="H23" r:id="rId19" display="https://www.lcsc.com/product-detail/Chip-Resistor-Surface-Mount_UNI-ROYAL-Uniroyal-Elec-0603WAF1002T5E_C25804.html" xr:uid="{2A15D88F-D626-4BA8-AA3E-C4FEB847A825}"/>
-    <hyperlink ref="H24" r:id="rId20" xr:uid="{F4F7A308-6FB7-476E-BBED-294A4A8C59A1}"/>
+    <hyperlink ref="H29" r:id="rId13" xr:uid="{53D4AA25-50D8-4948-9578-88A0DE32C66D}"/>
+    <hyperlink ref="H23" r:id="rId14" xr:uid="{2447EDC8-C90D-4F35-942B-15E11C634042}"/>
+    <hyperlink ref="H24" r:id="rId15" xr:uid="{A1CC9901-A21D-4018-B033-9B216130D9CB}"/>
+    <hyperlink ref="H25" r:id="rId16" xr:uid="{2A10980C-D130-475B-A0C6-D4233CC6A133}"/>
+    <hyperlink ref="H26" r:id="rId17" xr:uid="{B6253E6E-5D0D-4A79-805F-E4A0706C13C9}"/>
+    <hyperlink ref="H22" r:id="rId18" xr:uid="{BC58EF1C-4774-4F5C-8A74-639426F681B9}"/>
+    <hyperlink ref="H15" r:id="rId19" xr:uid="{2376F782-5672-471A-885E-1AC8B3745AD2}"/>
+    <hyperlink ref="H16" r:id="rId20" xr:uid="{3F81660C-9C5E-48DB-B71F-903CB518B79E}"/>
+    <hyperlink ref="H17" r:id="rId21" xr:uid="{D2F771C1-CB80-4EF8-B047-283EBDD3BCBA}"/>
+    <hyperlink ref="H18" r:id="rId22" xr:uid="{EE3B0182-2AFB-4FB5-B71D-7B881FAD4FB3}"/>
+    <hyperlink ref="H19" r:id="rId23" xr:uid="{A9F06973-7916-4F73-ACFC-C8DEEB2345CF}"/>
+    <hyperlink ref="H14" r:id="rId24" xr:uid="{95957621-1A4E-4F60-97F1-34697C347508}"/>
+    <hyperlink ref="H12" r:id="rId25" xr:uid="{E524170D-8701-4A1D-894E-7B7745C00C66}"/>
+    <hyperlink ref="H11" r:id="rId26" xr:uid="{C5DF1752-8808-478D-B60A-C9C52BF70427}"/>
+    <hyperlink ref="H10" r:id="rId27" xr:uid="{543902CE-2D64-4A2D-A410-3D2BD8AD09CC}"/>
+    <hyperlink ref="H9" r:id="rId28" xr:uid="{69105054-E798-4322-96D0-6D3579220DB2}"/>
+    <hyperlink ref="H8" r:id="rId29" xr:uid="{5CC70CFD-80EA-4F6E-BADA-72557C031E20}"/>
+    <hyperlink ref="H7" r:id="rId30" xr:uid="{FF8FC0F0-90DF-4FCB-B139-7E980D8E52BF}"/>
+    <hyperlink ref="H6" r:id="rId31" xr:uid="{BCA0759A-8E75-4F93-961C-6566EC570B30}"/>
+    <hyperlink ref="H5" r:id="rId32" xr:uid="{EAF4B472-7AD9-4E2E-93E4-3A12095AEF79}"/>
+    <hyperlink ref="H4" r:id="rId33" xr:uid="{C7FF0838-F400-4623-BA8C-AFB7C744B805}"/>
+    <hyperlink ref="H3" r:id="rId34" xr:uid="{64EA51DD-4F04-4A67-A2F1-4BB6193DCB63}"/>
+    <hyperlink ref="H2" r:id="rId35" xr:uid="{1F1103DF-F728-4CDB-8040-E54AE68C8F47}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bill of Materials-CAN2XG.xlsx
+++ b/Bill of Materials-CAN2XG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Autopeepel\HW_CAN2x_FD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79BCDD7B-3872-4A0F-9D03-410DCF7D8D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CEDC57-19FB-46AB-A652-D9A3594B7344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -697,7 +697,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -711,7 +711,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1030,8 +1029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="FH1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="C10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1157,7 +1156,7 @@
       <c r="G5" s="3">
         <v>1</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="11" t="s">
         <v>177</v>
       </c>
     </row>
@@ -1178,7 +1177,7 @@
       <c r="G6" s="3">
         <v>1</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="11" t="s">
         <v>176</v>
       </c>
     </row>
@@ -1610,7 +1609,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="7" t="s">
         <v>90</v>
       </c>
       <c r="B26" s="1" t="s">
